--- a/PaperAppendices/ARDiff/assets/NonEquivalentBenchmark.xlsx
+++ b/PaperAppendices/ARDiff/assets/NonEquivalentBenchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Projects/Equivalence Checking/results/MainFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0657AB-0433-C541-8B8D-FEA3AD4E9096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FC2F1-2E9A-1B46-8C58-CA9F743347A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
+    <workbookView xWindow="-38400" yWindow="-2280" windowWidth="38400" windowHeight="21600" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
   </bookViews>
   <sheets>
     <sheet name="Neq" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="133">
   <si>
     <t>Benchmarks</t>
   </si>
@@ -43,9 +43,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>F, E</t>
-  </si>
-  <si>
     <t>snippet</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>SIGN</t>
   </si>
   <si>
-    <t>F,F,E</t>
-  </si>
-  <si>
     <t>F,F,M</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>D,U</t>
   </si>
   <si>
-    <t>I,D,D</t>
-  </si>
-  <si>
     <t>I,U,U</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>M,E,E</t>
   </si>
   <si>
-    <t>U,I,U</t>
-  </si>
-  <si>
     <t>bessy1</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t xml:space="preserve">F,M </t>
   </si>
   <si>
-    <t>I,D,U</t>
-  </si>
-  <si>
     <t>bessy</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t>brent</t>
   </si>
   <si>
-    <t>U, I, D</t>
-  </si>
-  <si>
     <t>dbrent</t>
   </si>
   <si>
@@ -299,9 +281,6 @@
   </si>
   <si>
     <t>erfcc</t>
-  </si>
-  <si>
-    <t>U,D</t>
   </si>
   <si>
     <t>expint</t>
@@ -372,12 +351,6 @@
     <t>U,I</t>
   </si>
   <si>
-    <t>I,D</t>
-  </si>
-  <si>
-    <t>I,I,I</t>
-  </si>
-  <si>
     <t>A,A,A</t>
   </si>
   <si>
@@ -387,74 +360,80 @@
     <t>A,R,A</t>
   </si>
   <si>
-    <t>C,R,A</t>
-  </si>
-  <si>
     <t>R,A,C</t>
   </si>
   <si>
-    <t>A,C,R</t>
-  </si>
-  <si>
-    <t>D,U,I</t>
-  </si>
-  <si>
     <t>I,I</t>
   </si>
   <si>
-    <t>A,R,C</t>
-  </si>
-  <si>
-    <t>R,A,R</t>
-  </si>
-  <si>
-    <t>R,C</t>
-  </si>
-  <si>
-    <t>R,A,A</t>
+    <t>C,A,A</t>
+  </si>
+  <si>
+    <t>D,U,U</t>
+  </si>
+  <si>
+    <t>U,D,U</t>
+  </si>
+  <si>
+    <t>R,C,A</t>
+  </si>
+  <si>
+    <t>D,I,U</t>
+  </si>
+  <si>
+    <t>C,C,R</t>
+  </si>
+  <si>
+    <t>C,A,R</t>
+  </si>
+  <si>
+    <t>I,I,U</t>
+  </si>
+  <si>
+    <t>A,A,C</t>
+  </si>
+  <si>
+    <t>R,R,C</t>
+  </si>
+  <si>
+    <t>U,U,I</t>
+  </si>
+  <si>
+    <t>I,U,I</t>
+  </si>
+  <si>
+    <t>R,R,A</t>
+  </si>
+  <si>
+    <t>F,M,M</t>
+  </si>
+  <si>
+    <t>I,D,U</t>
+  </si>
+  <si>
+    <t>D,I</t>
+  </si>
+  <si>
+    <t>U,U,D</t>
+  </si>
+  <si>
+    <t>U,D,I</t>
+  </si>
+  <si>
+    <t>I,U,D</t>
   </si>
   <si>
     <t>U,I,D</t>
   </si>
   <si>
-    <t>C,A,A</t>
-  </si>
-  <si>
-    <t>D,U,U</t>
-  </si>
-  <si>
-    <t>C,R</t>
-  </si>
-  <si>
-    <t>C,R,R</t>
-  </si>
-  <si>
-    <t>U,D,U</t>
-  </si>
-  <si>
-    <t>R,C,A</t>
-  </si>
-  <si>
-    <t>D,I,U</t>
-  </si>
-  <si>
-    <t>U,U,D</t>
-  </si>
-  <si>
-    <t>C,C,R</t>
-  </si>
-  <si>
     <t>A,R</t>
-  </si>
-  <si>
-    <t>C,A,R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,8 +712,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,22 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,14 +733,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,11 +1070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3CC043-4585-6048-AD0C-E1C172F24C39}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
@@ -1106,44 +1085,44 @@
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="55" customHeight="1" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="21" t="s">
-        <v>99</v>
+      <c r="E1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1155,16 +1134,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20" thickBot="1">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
         <v>13</v>
@@ -1173,84 +1152,84 @@
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="21" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>38</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19">
-      <c r="A6" s="21"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>13</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>19</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19">
-      <c r="A8" s="21"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>
@@ -1259,19 +1238,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19">
-      <c r="A9" s="21"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>24</v>
@@ -1280,19 +1259,19 @@
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19">
-      <c r="A10" s="21"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>27</v>
@@ -1301,40 +1280,40 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19">
-      <c r="A11" s="21"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>16</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19">
-      <c r="A12" s="21"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -1346,16 +1325,16 @@
         <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19">
-      <c r="A13" s="21"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
@@ -1364,40 +1343,40 @@
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19">
-      <c r="A14" s="21"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2">
         <v>16</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19">
-      <c r="A15" s="21"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1406,19 +1385,19 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19">
-      <c r="A16" s="21"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2">
         <v>21</v>
@@ -1427,103 +1406,103 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19">
-      <c r="A17" s="21"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2">
         <v>41</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19">
-      <c r="A18" s="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2">
         <v>19</v>
       </c>
       <c r="D18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19">
-      <c r="A19" s="21"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2">
         <v>13</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19">
-      <c r="A20" s="21"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>13</v>
       </c>
       <c r="D20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20" thickBot="1">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
       <c r="B21" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="9">
         <v>3</v>
@@ -1532,21 +1511,21 @@
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19">
-      <c r="A22" s="20" t="s">
-        <v>100</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2">
         <v>45</v>
@@ -1555,19 +1534,19 @@
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" thickBot="1">
-      <c r="A23" s="21"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -1576,21 +1555,21 @@
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20" thickBot="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16">
         <v>9</v>
@@ -1599,21 +1578,21 @@
         <v>1</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19">
-      <c r="A25" s="29" t="s">
-        <v>102</v>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2">
         <v>61</v>
@@ -1622,19 +1601,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19">
-      <c r="A26" s="30"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2">
         <v>59</v>
@@ -1643,19 +1622,19 @@
         <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19">
-      <c r="A27" s="30"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
         <v>79</v>
@@ -1664,19 +1643,19 @@
         <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19">
-      <c r="A28" s="30"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
         <v>53</v>
@@ -1685,61 +1664,61 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19">
-      <c r="A29" s="30"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2">
         <v>26</v>
       </c>
       <c r="D29" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19">
-      <c r="A30" s="30"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2">
         <v>37</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19">
-      <c r="A31" s="30"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2">
         <v>21</v>
@@ -1748,40 +1727,40 @@
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19">
-      <c r="A32" s="30"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19">
-      <c r="A33" s="30"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
@@ -1790,19 +1769,19 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20" thickBot="1">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2">
         <v>6</v>
@@ -1811,21 +1790,21 @@
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19">
-      <c r="A35" s="20" t="s">
-        <v>103</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C35" s="6">
         <v>36</v>
@@ -1834,19 +1813,19 @@
         <v>3</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19">
-      <c r="A36" s="21"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
         <v>10</v>
@@ -1855,19 +1834,19 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2">
         <v>35</v>
@@ -1876,40 +1855,40 @@
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19">
-      <c r="A38" s="21"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2">
         <v>7</v>
       </c>
       <c r="D38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19">
-      <c r="A39" s="21"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2">
         <v>51</v>
@@ -1918,40 +1897,40 @@
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19">
-      <c r="A40" s="21"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2">
         <v>8</v>
       </c>
       <c r="D40" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19">
-      <c r="A41" s="21"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
@@ -1960,19 +1939,19 @@
         <v>1</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19">
-      <c r="A42" s="21"/>
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2">
         <v>25</v>
@@ -1981,19 +1960,19 @@
         <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20" thickBot="1">
-      <c r="A43" s="22"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
       <c r="B43" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C43" s="9">
         <v>23</v>
@@ -2002,21 +1981,21 @@
         <v>2</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="20" thickBot="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="2">
         <v>22</v>
@@ -2025,21 +2004,21 @@
         <v>2</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19">
-      <c r="A45" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="6">
         <v>68</v>
@@ -2048,19 +2027,19 @@
         <v>3</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19">
-      <c r="A46" s="21"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2">
         <v>40</v>
@@ -2069,19 +2048,19 @@
         <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19">
-      <c r="A47" s="21"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2">
         <v>25</v>
@@ -2090,19 +2069,19 @@
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="19">
-      <c r="A48" s="21"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
         <v>39</v>
@@ -2111,19 +2090,19 @@
         <v>3</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="19">
-      <c r="A49" s="21"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2">
         <v>15</v>
@@ -2132,19 +2111,19 @@
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="19">
-      <c r="A50" s="21"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2">
         <v>7</v>
@@ -2153,19 +2132,19 @@
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="19">
-      <c r="A51" s="21"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2">
         <v>18</v>
@@ -2174,19 +2153,19 @@
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="20" thickBot="1">
-      <c r="A52" s="21"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="2">
         <v>34</v>
@@ -2195,21 +2174,21 @@
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="20" thickBot="1">
+    <row r="53" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C53" s="16">
         <v>148</v>
@@ -2218,21 +2197,21 @@
         <v>3</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="19">
-      <c r="A54" s="21" t="s">
-        <v>107</v>
+    <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2">
         <v>19</v>
@@ -2241,84 +2220,84 @@
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="19">
-      <c r="A55" s="21"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2">
         <v>11</v>
       </c>
       <c r="D55" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="20" thickBot="1">
-      <c r="A56" s="21"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2">
         <v>11</v>
       </c>
       <c r="D56" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="19">
-      <c r="A57" s="20" t="s">
-        <v>108</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="6">
         <v>32</v>
       </c>
       <c r="D57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="19">
-      <c r="A58" s="21"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
       <c r="B58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2">
         <v>27</v>
@@ -2327,19 +2306,19 @@
         <v>3</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="20" thickBot="1">
-      <c r="A59" s="22"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
       <c r="B59" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="9">
         <v>9</v>
@@ -2348,17 +2327,22 @@
         <v>2</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A21"/>
@@ -2369,11 +2353,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
